--- a/업무데이터1226부터.xlsx
+++ b/업무데이터1226부터.xlsx
@@ -2,29 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan\marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17685" tabRatio="814" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17685" tabRatio="814" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hotjar" sheetId="2" r:id="rId1"/>
     <sheet name="GA" sheetId="3" r:id="rId2"/>
     <sheet name="UTM" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
-    <sheet name="키워드광고" sheetId="4" r:id="rId5"/>
-    <sheet name="체험신청" sheetId="5" r:id="rId6"/>
-    <sheet name="치킨이벤트" sheetId="1" r:id="rId7"/>
-    <sheet name="사이트내이벤트" sheetId="7" r:id="rId8"/>
-    <sheet name="GDN" sheetId="9" r:id="rId9"/>
+    <sheet name="키워드광고" sheetId="4" r:id="rId4"/>
+    <sheet name="체험신청" sheetId="5" r:id="rId5"/>
+    <sheet name="치킨이벤트" sheetId="1" r:id="rId6"/>
+    <sheet name="사이트내이벤트" sheetId="7" r:id="rId7"/>
+    <sheet name="GDN" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">UTM!$A$2:$E$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">치킨이벤트!$A$6:$A$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">치킨이벤트!$A$6:$A$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="176">
   <si>
     <t>010-7444-2846</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -695,6 +695,38 @@
   </si>
   <si>
     <t>이미지 소재 50개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{query}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdn_ad1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01/16-01/21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01/09-01/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdn_ad2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -951,6 +983,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -970,15 +1011,6 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1009,6 +1041,1000 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>체험신청!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>체험권신청</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>체험신청!$A$3:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44206</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44208</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>체험신청!$B$3:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DBA-4CC8-AC89-2AD79E83EC57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1076159648"/>
+        <c:axId val="1069444464"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1076159648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1069444464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1069444464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1076159648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1301,10 +2327,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D16"/>
+  <dimension ref="A2:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A16"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1520,6 +2546,79 @@
         <v>9</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>44205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>44206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>44207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>44208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
+        <v>44210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
+        <v>44212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <v>44213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
+        <v>44214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>44216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
+        <v>44217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1528,10 +2627,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1542,14 +2641,16 @@
     <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>87</v>
       </c>
@@ -1571,8 +2672,14 @@
       <c r="G2" s="19" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H2" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -1595,7 +2702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -1618,7 +2725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -1641,7 +2748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -1664,7 +2771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1687,7 +2794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -1710,7 +2817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -1733,7 +2840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -1756,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -1779,7 +2886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -1802,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -1824,11 +2931,11 @@
       <c r="G13">
         <v>109</v>
       </c>
-      <c r="I13" t="s">
+      <c r="M13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -1851,7 +2958,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -1874,7 +2981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -1897,7 +3004,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -1920,7 +3027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -1943,77 +3050,107 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" t="s">
+        <v>175</v>
+      </c>
+      <c r="I20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>131</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>122</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>123</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>124</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E21" t="s">
         <v>120</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>11</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>128</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>126</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>123</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>124</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E22" t="s">
         <v>120</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <v>8</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:E20">
-    <sortState ref="A3:E20">
+    <sortState ref="A3:E22">
       <sortCondition descending="1" ref="A2:A20"/>
     </sortState>
   </autoFilter>
+  <sortState ref="A3:I22">
+    <sortCondition descending="1" ref="A3"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C10"/>
   <sheetViews>
@@ -2128,12 +3265,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="R19" sqref="R18:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2184,7 +3321,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D16" si="0">100-B4/C4*100</f>
+        <f>100-B4/C4*100</f>
         <v>20</v>
       </c>
     </row>
@@ -2199,7 +3336,7 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f>100-B5/C5*100</f>
         <v>66.666666666666671</v>
       </c>
     </row>
@@ -2214,7 +3351,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f>100-B6/C6*100</f>
         <v>-12.5</v>
       </c>
     </row>
@@ -2229,7 +3366,7 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f>100-B7/C7*100</f>
         <v>44.444444444444443</v>
       </c>
     </row>
@@ -2244,7 +3381,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f>100-B8/C8*100</f>
         <v>-33.333333333333314</v>
       </c>
     </row>
@@ -2259,7 +3396,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f>100-B9/C9*100</f>
         <v>-28.571428571428584</v>
       </c>
     </row>
@@ -2274,7 +3411,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f>100-B10/C10*100</f>
         <v>-42.857142857142861</v>
       </c>
     </row>
@@ -2289,7 +3426,7 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f>100-B11/C11*100</f>
         <v>-80</v>
       </c>
     </row>
@@ -2304,7 +3441,7 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f>100-B12/C12*100</f>
         <v>50</v>
       </c>
     </row>
@@ -2319,7 +3456,7 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f>100-B13/C13*100</f>
         <v>16.666666666666657</v>
       </c>
     </row>
@@ -2334,7 +3471,7 @@
         <v>8</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f>100-B14/C14*100</f>
         <v>50</v>
       </c>
     </row>
@@ -2349,7 +3486,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f>100-B15/C15*100</f>
         <v>-50</v>
       </c>
     </row>
@@ -2364,7 +3501,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f>100-B16/C16*100</f>
         <v>-14.285714285714278</v>
       </c>
     </row>
@@ -2388,36 +3525,57 @@
       <c r="A19" s="16">
         <v>44207</v>
       </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>44208</v>
       </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>44209</v>
       </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>44210</v>
       </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>44211</v>
       </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>44212</v>
       </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>44213</v>
       </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
@@ -2492,10 +3650,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O54"/>
   <sheetViews>
@@ -2515,10 +3674,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="26"/>
+      <c r="D2" s="29"/>
       <c r="G2" s="3" t="s">
         <v>36</v>
       </c>
@@ -2536,14 +3695,14 @@
       </c>
       <c r="N2" s="7">
         <f ca="1">TODAY()</f>
-        <v>44207</v>
+        <v>44214</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="27"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="M3" s="8" t="s">
@@ -2551,14 +3710,14 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),3)+6</f>
-        <v>44213</v>
+        <v>44220</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="28"/>
       <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
@@ -2595,7 +3754,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
+      <c r="A6" s="30">
         <v>44185</v>
       </c>
       <c r="B6" s="2">
@@ -2609,7 +3768,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -2622,7 +3781,7 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -2634,7 +3793,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -2646,7 +3805,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -2658,7 +3817,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -2670,7 +3829,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -2682,7 +3841,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -2694,7 +3853,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -2706,7 +3865,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -2724,7 +3883,7 @@
       <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="28">
+      <c r="A17" s="31">
         <v>43833</v>
       </c>
       <c r="C17" t="s">
@@ -2732,19 +3891,19 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="31"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="31"/>
       <c r="C19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="2">
         <v>1</v>
       </c>
@@ -2756,7 +3915,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="2">
         <v>2</v>
       </c>
@@ -2768,7 +3927,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="2">
         <v>3</v>
       </c>
@@ -2780,7 +3939,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="2">
         <v>4</v>
       </c>
@@ -2792,19 +3951,19 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="31"/>
       <c r="C24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="31"/>
       <c r="C25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="2">
         <v>5</v>
       </c>
@@ -2816,7 +3975,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="2">
         <v>6</v>
       </c>
@@ -2828,7 +3987,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="2">
         <v>7</v>
       </c>
@@ -2841,7 +4000,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="2">
         <v>8</v>
       </c>
@@ -2854,7 +4013,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="2">
         <v>9</v>
       </c>
@@ -2866,7 +4025,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="2">
         <v>10</v>
       </c>
@@ -2884,7 +4043,7 @@
       <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="26" t="s">
         <v>67</v>
       </c>
       <c r="B33" s="2">
@@ -2896,26 +4055,26 @@
       <c r="D33" s="1">
         <v>1072338107</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="26"/>
       <c r="C34" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="22"/>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="26"/>
       <c r="C35" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="2">
         <v>2</v>
       </c>
@@ -2925,38 +4084,38 @@
       <c r="D36" s="1">
         <v>1036818146</v>
       </c>
-      <c r="E36" s="22"/>
+      <c r="E36" s="25"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="26"/>
       <c r="C37" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="22"/>
+      <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="26"/>
       <c r="C38" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="22"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="26"/>
       <c r="C39" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="22"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="26"/>
       <c r="C40" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="22"/>
+      <c r="E40" s="25"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="2">
         <v>3</v>
       </c>
@@ -2966,10 +4125,10 @@
       <c r="D41" s="1">
         <v>1053790853</v>
       </c>
-      <c r="E41" s="22"/>
+      <c r="E41" s="25"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="2">
         <v>4</v>
       </c>
@@ -2979,17 +4138,17 @@
       <c r="D42" s="1">
         <v>1033405260</v>
       </c>
-      <c r="E42" s="22"/>
+      <c r="E42" s="25"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
+      <c r="A43" s="26"/>
       <c r="C43" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="22"/>
+      <c r="E43" s="25"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="2">
         <v>5</v>
       </c>
@@ -2999,10 +4158,10 @@
       <c r="D44" s="1">
         <v>1074240173</v>
       </c>
-      <c r="E44" s="22"/>
+      <c r="E44" s="25"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="2">
         <v>6</v>
       </c>
@@ -3012,10 +4171,10 @@
       <c r="D45" s="1">
         <v>1081562233</v>
       </c>
-      <c r="E45" s="22"/>
+      <c r="E45" s="25"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="2">
         <v>7</v>
       </c>
@@ -3025,24 +4184,24 @@
       <c r="D46" s="1">
         <v>1030395569</v>
       </c>
-      <c r="E46" s="22"/>
+      <c r="E46" s="25"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
+      <c r="A47" s="26"/>
       <c r="C47" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="22"/>
+      <c r="E47" s="25"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
+      <c r="A48" s="26"/>
       <c r="C48" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="22"/>
+      <c r="E48" s="25"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="2">
         <v>8</v>
       </c>
@@ -3052,10 +4211,10 @@
       <c r="D49" s="1">
         <v>1089342612</v>
       </c>
-      <c r="E49" s="22"/>
+      <c r="E49" s="25"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="2">
         <v>9</v>
       </c>
@@ -3065,24 +4224,24 @@
       <c r="D50" s="1">
         <v>1081562233</v>
       </c>
-      <c r="E50" s="22"/>
+      <c r="E50" s="25"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="A51" s="26"/>
       <c r="C51" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="22"/>
+      <c r="E51" s="25"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="26"/>
       <c r="C52" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="22"/>
+      <c r="E52" s="25"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="A53" s="26"/>
       <c r="B53" s="2">
         <v>10</v>
       </c>
@@ -3092,7 +4251,7 @@
       <c r="D53" s="1">
         <v>1042226888</v>
       </c>
-      <c r="E53" s="22"/>
+      <c r="E53" s="25"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
@@ -3119,12 +4278,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F17"/>
+  <dimension ref="A3:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3261,10 +4420,10 @@
       <c r="C13" s="21">
         <v>12</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="24">
         <v>21</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="23">
         <v>21</v>
       </c>
     </row>
@@ -3278,10 +4437,10 @@
       <c r="C14" s="21">
         <v>6</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="24">
         <v>35</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="23">
         <v>44</v>
       </c>
     </row>
@@ -3295,10 +4454,10 @@
       <c r="C15" s="21">
         <v>8</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="24">
         <v>21</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="23">
         <v>36</v>
       </c>
     </row>
@@ -3312,10 +4471,10 @@
       <c r="C16" s="21">
         <v>2</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="24">
         <v>26</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="23">
         <v>34</v>
       </c>
     </row>
@@ -3329,12 +4488,91 @@
       <c r="C17" s="21">
         <v>7</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="24">
         <v>22</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="23">
         <v>17</v>
       </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>44205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>44206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>44207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>44208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <v>44210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <v>44212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
+        <v>44213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
+        <v>44214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
+        <v>44216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>44217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="17">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3342,12 +4580,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3423,8 +4661,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3467,4 +4705,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/업무데이터1226부터.xlsx
+++ b/업무데이터1226부터.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17685" tabRatio="814" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17685" tabRatio="814" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Hotjar" sheetId="2" r:id="rId1"/>
-    <sheet name="GA" sheetId="3" r:id="rId2"/>
+    <sheet name="GA" sheetId="3" r:id="rId1"/>
+    <sheet name="GDN" sheetId="9" r:id="rId2"/>
     <sheet name="UTM" sheetId="6" r:id="rId3"/>
     <sheet name="키워드광고" sheetId="4" r:id="rId4"/>
     <sheet name="체험신청" sheetId="5" r:id="rId5"/>
     <sheet name="치킨이벤트" sheetId="1" r:id="rId6"/>
     <sheet name="사이트내이벤트" sheetId="7" r:id="rId7"/>
-    <sheet name="GDN" sheetId="9" r:id="rId8"/>
+    <sheet name="Hotjar" sheetId="2" r:id="rId8"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="210">
   <si>
     <t>010-7444-2846</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -727,6 +727,112 @@
   </si>
   <si>
     <t>gdn_ad2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생의 눈높이에서 명확한 강의</t>
+  </si>
+  <si>
+    <t>KMO1차, 2차 완벽 대비</t>
+  </si>
+  <si>
+    <t>영재고, 더 늦기 전에 프라이빗</t>
+  </si>
+  <si>
+    <t>3년 올인원 패키지 52% 할인 중</t>
+  </si>
+  <si>
+    <t>학원쌤보다 형들이 더 잘가르쳐</t>
+  </si>
+  <si>
+    <t>실제 영재고 출신 선생님들의 색다른 풀이 방법과 꿀팁, 프라이빗노트에서 무료로 맛보기</t>
+  </si>
+  <si>
+    <t>지방에서 KMO 독학하기 어렵지 않습니다. 영재고 합격 후기 보러가기</t>
+  </si>
+  <si>
+    <t>압도적인 스펙의 선생님들, 프라이빗노트의 강의가 왜 효과가 좋은지 알 수 있습니다.</t>
+  </si>
+  <si>
+    <t>영재고 출신 선생님들의 꿀팁 가득한 강의, 지금 바로 무료체험 가능!</t>
+  </si>
+  <si>
+    <t>남들은 학원으로 합격하는 영재고, 인강만 활용하고도 합격이 가능하다?</t>
+  </si>
+  <si>
+    <t>영재고 출신 선생님들의 노하우</t>
+  </si>
+  <si>
+    <t>2021년 KMO 수상은 프노와 함께</t>
+  </si>
+  <si>
+    <t>게임처럼 하는 KMO 공부</t>
+  </si>
+  <si>
+    <t>독학으로 영재고 합격하려면?</t>
+  </si>
+  <si>
+    <t>KMO, 영재고 패키지 52% 할인 중</t>
+  </si>
+  <si>
+    <t>프라이빗노트와 함께라면 영재고, 올림피아드 준비 학원 없이도 가능합니다</t>
+  </si>
+  <si>
+    <t>똑똑한 우리 아이, 똑똑한 선생님에게 수업받자! 올림피아드 수상 후기 보러가기</t>
+  </si>
+  <si>
+    <t>독학러도 영재고 합격 할 수 있다, 후기 보러가기!</t>
+  </si>
+  <si>
+    <t>독학으로 영재고/과학고 합격한 후기, 지금 바로 읽으러 가기!</t>
+  </si>
+  <si>
+    <t>KMO 수업 따라가기 힘들어 하던 우리 아이, 프라이빗노트 듣고 학원에서 1등했어요</t>
+  </si>
+  <si>
+    <t>영재고 준비, 지금도 늦지 않았습니다. 독학생의 영재고 합격, KMO 수상 후기 지금 바로 읽기</t>
+  </si>
+  <si>
+    <t>이제 KMO는 프라이빗노트로 끝</t>
+  </si>
+  <si>
+    <t>KMO를 위한 최고의 선택</t>
+  </si>
+  <si>
+    <t>KMO도 재밌게 공부하기 가능하다</t>
+  </si>
+  <si>
+    <t>우리 아이도 프라이빗노트로</t>
+  </si>
+  <si>
+    <t>아이가 더 좋아하는 똑똑한 공부</t>
+  </si>
+  <si>
+    <t>게임처럼 재밌고 과외보다 효과적인 프라이빗노트, 1분만에 무료체험 신청 가능</t>
+  </si>
+  <si>
+    <t>똑똑한 학생들을 위한 영재고 출신 선생님들의 역대급 라인업!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프라이빗노트 덕분에 꼴찌에서 1등으로! 영재고 출신 선생님들의 노하우 액기스만 쏙쏙 담았다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과가 눈에 보인다! 영재고 출신 선생님들의 KMO 공부 특효법 전수</t>
+  </si>
+  <si>
+    <t>영재고 입시에 대한 고민 무료상담, 무료체험 일단 해보면 왜 프라이빗노트인지 안다</t>
+  </si>
+  <si>
+    <t>KMO 서술형 문제는 프라이빗노트에서 배우자! 식을 세우는 방법부터 논리적인 전개방식까지</t>
+  </si>
+  <si>
+    <t>어렵고 싫었던 물리, OOOOO 덕분에 최상위권 달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdn_ad3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,7 +846,7 @@
     <numFmt numFmtId="178" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,8 +926,16 @@
       <family val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -860,6 +974,11 @@
       <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -905,7 +1024,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -918,8 +1037,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,6 +1113,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1013,8 +1144,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
+    <cellStyle name="보통" xfId="4" builtinId="28"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="3"/>
@@ -2300,33 +2432,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="11.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2625,12 +2730,267 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K35"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="86.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="56.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>187</v>
+      </c>
+      <c r="K15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>188</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>199</v>
+      </c>
+      <c r="K27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>202</v>
+      </c>
+      <c r="K30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>203</v>
+      </c>
+      <c r="K31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>204</v>
+      </c>
+      <c r="K32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3134,6 +3494,23 @@
       </c>
       <c r="G22">
         <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3154,7 +3531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3270,7 +3647,7 @@
   <dimension ref="A2:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R19" sqref="R18:R19"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3306,7 +3683,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <f>100-B3/C3*100</f>
+        <f t="shared" ref="D3:D16" si="0">100-B3/C3*100</f>
         <v>33.333333333333343</v>
       </c>
     </row>
@@ -3321,7 +3698,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <f>100-B4/C4*100</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -3336,7 +3713,7 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <f>100-B5/C5*100</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
     </row>
@@ -3351,7 +3728,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <f>100-B6/C6*100</f>
+        <f t="shared" si="0"/>
         <v>-12.5</v>
       </c>
     </row>
@@ -3366,7 +3743,7 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <f>100-B7/C7*100</f>
+        <f t="shared" si="0"/>
         <v>44.444444444444443</v>
       </c>
     </row>
@@ -3381,7 +3758,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <f>100-B8/C8*100</f>
+        <f t="shared" si="0"/>
         <v>-33.333333333333314</v>
       </c>
     </row>
@@ -3396,7 +3773,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <f>100-B9/C9*100</f>
+        <f t="shared" si="0"/>
         <v>-28.571428571428584</v>
       </c>
     </row>
@@ -3411,7 +3788,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <f>100-B10/C10*100</f>
+        <f t="shared" si="0"/>
         <v>-42.857142857142861</v>
       </c>
     </row>
@@ -3426,7 +3803,7 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <f>100-B11/C11*100</f>
+        <f t="shared" si="0"/>
         <v>-80</v>
       </c>
     </row>
@@ -3441,7 +3818,7 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <f>100-B12/C12*100</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -3456,7 +3833,7 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <f>100-B13/C13*100</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666657</v>
       </c>
     </row>
@@ -3471,7 +3848,7 @@
         <v>8</v>
       </c>
       <c r="D14">
-        <f>100-B14/C14*100</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -3486,7 +3863,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <f>100-B15/C15*100</f>
+        <f t="shared" si="0"/>
         <v>-50</v>
       </c>
     </row>
@@ -3501,7 +3878,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <f>100-B16/C16*100</f>
+        <f t="shared" si="0"/>
         <v>-14.285714285714278</v>
       </c>
     </row>
@@ -3581,10 +3958,16 @@
       <c r="A26" s="16">
         <v>44214</v>
       </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>44215</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -3674,10 +4057,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="32"/>
       <c r="G2" s="3" t="s">
         <v>36</v>
       </c>
@@ -3695,14 +4078,14 @@
       </c>
       <c r="N2" s="7">
         <f ca="1">TODAY()</f>
-        <v>44214</v>
+        <v>44216</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="30"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="M3" s="8" t="s">
@@ -3714,10 +4097,10 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="31"/>
       <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
@@ -3754,7 +4137,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
+      <c r="A6" s="33">
         <v>44185</v>
       </c>
       <c r="B6" s="2">
@@ -3768,7 +4151,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -3781,7 +4164,7 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -3793,7 +4176,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -3805,7 +4188,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -3817,7 +4200,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -3829,7 +4212,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -3841,7 +4224,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -3853,7 +4236,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -3865,7 +4248,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -3883,7 +4266,7 @@
       <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="31">
+      <c r="A17" s="34">
         <v>43833</v>
       </c>
       <c r="C17" t="s">
@@ -3891,19 +4274,19 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
+      <c r="A18" s="34"/>
       <c r="C18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
+      <c r="A19" s="34"/>
       <c r="C19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="2">
         <v>1</v>
       </c>
@@ -3915,7 +4298,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="2">
         <v>2</v>
       </c>
@@ -3927,7 +4310,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="2">
         <v>3</v>
       </c>
@@ -3939,7 +4322,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="2">
         <v>4</v>
       </c>
@@ -3951,19 +4334,19 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
+      <c r="A24" s="34"/>
       <c r="C24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
+      <c r="A25" s="34"/>
       <c r="C25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="2">
         <v>5</v>
       </c>
@@ -3975,7 +4358,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="2">
         <v>6</v>
       </c>
@@ -3987,7 +4370,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="2">
         <v>7</v>
       </c>
@@ -4000,7 +4383,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="2">
         <v>8</v>
       </c>
@@ -4013,7 +4396,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="2">
         <v>9</v>
       </c>
@@ -4025,7 +4408,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="2">
         <v>10</v>
       </c>
@@ -4043,7 +4426,7 @@
       <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="29" t="s">
         <v>67</v>
       </c>
       <c r="B33" s="2">
@@ -4055,26 +4438,26 @@
       <c r="D33" s="1">
         <v>1072338107</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
+      <c r="A34" s="29"/>
       <c r="C34" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="25"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
+      <c r="A35" s="29"/>
       <c r="C35" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="25"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="2">
         <v>2</v>
       </c>
@@ -4084,38 +4467,38 @@
       <c r="D36" s="1">
         <v>1036818146</v>
       </c>
-      <c r="E36" s="25"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
+      <c r="A37" s="29"/>
       <c r="C37" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="25"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
+      <c r="A38" s="29"/>
       <c r="C38" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="25"/>
+      <c r="E38" s="28"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
+      <c r="A39" s="29"/>
       <c r="C39" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="25"/>
+      <c r="E39" s="28"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
+      <c r="A40" s="29"/>
       <c r="C40" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="25"/>
+      <c r="E40" s="28"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="2">
         <v>3</v>
       </c>
@@ -4125,10 +4508,10 @@
       <c r="D41" s="1">
         <v>1053790853</v>
       </c>
-      <c r="E41" s="25"/>
+      <c r="E41" s="28"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="2">
         <v>4</v>
       </c>
@@ -4138,17 +4521,17 @@
       <c r="D42" s="1">
         <v>1033405260</v>
       </c>
-      <c r="E42" s="25"/>
+      <c r="E42" s="28"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
+      <c r="A43" s="29"/>
       <c r="C43" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="25"/>
+      <c r="E43" s="28"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="2">
         <v>5</v>
       </c>
@@ -4158,10 +4541,10 @@
       <c r="D44" s="1">
         <v>1074240173</v>
       </c>
-      <c r="E44" s="25"/>
+      <c r="E44" s="28"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="2">
         <v>6</v>
       </c>
@@ -4171,10 +4554,10 @@
       <c r="D45" s="1">
         <v>1081562233</v>
       </c>
-      <c r="E45" s="25"/>
+      <c r="E45" s="28"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="26"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="2">
         <v>7</v>
       </c>
@@ -4184,24 +4567,24 @@
       <c r="D46" s="1">
         <v>1030395569</v>
       </c>
-      <c r="E46" s="25"/>
+      <c r="E46" s="28"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="26"/>
+      <c r="A47" s="29"/>
       <c r="C47" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="25"/>
+      <c r="E47" s="28"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
+      <c r="A48" s="29"/>
       <c r="C48" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="25"/>
+      <c r="E48" s="28"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="2">
         <v>8</v>
       </c>
@@ -4211,10 +4594,10 @@
       <c r="D49" s="1">
         <v>1089342612</v>
       </c>
-      <c r="E49" s="25"/>
+      <c r="E49" s="28"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="26"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="2">
         <v>9</v>
       </c>
@@ -4224,24 +4607,24 @@
       <c r="D50" s="1">
         <v>1081562233</v>
       </c>
-      <c r="E50" s="25"/>
+      <c r="E50" s="28"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="26"/>
+      <c r="A51" s="29"/>
       <c r="C51" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="25"/>
+      <c r="E51" s="28"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="26"/>
+      <c r="A52" s="29"/>
       <c r="C52" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="25"/>
+      <c r="E52" s="28"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="26"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="2">
         <v>10</v>
       </c>
@@ -4251,7 +4634,7 @@
       <c r="D53" s="1">
         <v>1042226888</v>
       </c>
-      <c r="E53" s="25"/>
+      <c r="E53" s="28"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
@@ -4582,123 +4965,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>165</v>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/업무데이터1226부터.xlsx
+++ b/업무데이터1226부터.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17685" tabRatio="814" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17685" tabRatio="814" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GA" sheetId="3" r:id="rId1"/>
@@ -3531,7 +3531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3646,8 +3646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3973,6 +3973,9 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>44216</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -4078,7 +4081,7 @@
       </c>
       <c r="N2" s="7">
         <f ca="1">TODAY()</f>
-        <v>44216</v>
+        <v>44217</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
